--- a/incquery-deps-documentation/measurements/modelload.xlsx
+++ b/incquery-deps-documentation/measurements/modelload.xlsx
@@ -16,30 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Eclipse Memory (MiB)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CP3Model serialized size (MiB)</t>
-  </si>
-  <si>
-    <t>IncQuery startup time (milisec)</t>
   </si>
   <si>
     <t>IncQuery Update time (microsec)</t>
   </si>
   <si>
-    <t>100 products</t>
+    <t>Startup time</t>
   </si>
   <si>
-    <t>200 products</t>
+    <t>Number of projets in model</t>
   </si>
   <si>
-    <t>300 products</t>
-  </si>
-  <si>
-    <t>400 products</t>
+    <t>Used memory</t>
   </si>
 </sst>
 </file>
@@ -89,6 +80,489 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>EMF-IncQuery</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> startup time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Startup time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="91398144"/>
+        <c:axId val="65647680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91398144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Projects in EMF</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t> model</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65647680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65647680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91398144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Eclipse + EMF-IncQuery</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> memory allocation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Used memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="92363264"/>
+        <c:axId val="92309760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92363264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Projects in EMF model</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92309760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92309760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>MiB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92363264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,7 +855,7 @@
   <dimension ref="B2:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,17 +865,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>400</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -424,7 +901,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -441,7 +918,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>385</v>
@@ -461,21 +938,21 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7299</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>13550</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>28059</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>52063</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>114.75</v>
@@ -492,6 +969,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
